--- a/src/test/java/rc25/mFormsAutomation/TestData/AddUsers.xlsx
+++ b/src/test/java/rc25/mFormsAutomation/TestData/AddUsers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="540" windowWidth="18855" windowHeight="11190" activeTab="2"/>
+    <workbookView xWindow="150" yWindow="540" windowWidth="18855" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Email(username)</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Astegic1!</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -503,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3099,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
